--- a/banhang24/Template/ExportExcel/Teamplate_PhieuTraHang.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_PhieuTraHang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Tên khách hàng</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Đã trả khách</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
   </si>
   <si>
     <t>Thời gian:</t>
@@ -133,7 +130,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,14 +142,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,36 +166,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,35 +234,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,14 +554,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
@@ -620,43 +572,43 @@
     <col min="7" max="9" width="31.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" style="6" customWidth="1"/>
     <col min="11" max="11" width="22.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="31" customWidth="1"/>
-    <col min="14" max="14" width="21" style="31" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="21" style="25" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="25" customWidth="1"/>
     <col min="20" max="20" width="19.140625" style="6" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,21 +623,21 @@
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="21"/>
       <c r="U2" s="15"/>
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="17"/>
@@ -697,21 +649,21 @@
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="21"/>
       <c r="U3" s="15"/>
       <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
@@ -723,14 +675,14 @@
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
       <c r="T4" s="21"/>
       <c r="U4" s="15"/>
       <c r="V4" s="4"/>
@@ -740,58 +692,58 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="23" t="s">
         <v>22</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>23</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>2</v>
@@ -800,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
@@ -812,18 +764,18 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="19"/>
@@ -835,18 +787,18 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="19"/>
@@ -858,18 +810,18 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="19"/>
@@ -881,18 +833,18 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="19"/>
@@ -904,18 +856,18 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="19"/>
@@ -927,18 +879,18 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="19"/>
@@ -950,18 +902,18 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="19"/>
@@ -973,18 +925,18 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="19"/>
@@ -996,18 +948,18 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="19"/>
@@ -1019,18 +971,18 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="19"/>
@@ -1042,18 +994,18 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="19"/>
@@ -1065,18 +1017,18 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="19"/>
@@ -1088,18 +1040,18 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="19"/>
@@ -1111,18 +1063,18 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="19"/>
@@ -1134,18 +1086,18 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="19"/>
@@ -1157,18 +1109,18 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="19"/>
@@ -1180,18 +1132,18 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="19"/>
@@ -1203,18 +1155,18 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="19"/>
@@ -1226,18 +1178,18 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="19"/>
@@ -1249,18 +1201,18 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="19"/>
@@ -1272,14 +1224,14 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
     </row>
@@ -1295,14 +1247,14 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
     </row>
@@ -1318,14 +1270,14 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
@@ -1341,70 +1293,20 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
     </row>
-    <row r="31" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="30">
-        <f xml:space="preserve"> SUM(L$7:L30)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="30">
-        <f xml:space="preserve"> SUM(M$7:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="30">
-        <f>L31-M31</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="30">
-        <f xml:space="preserve"> SUM(O$7:O30)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="30">
-        <f xml:space="preserve"> SUM(P$7:P30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="30">
-        <f xml:space="preserve"> SUM(Q$7:Q30)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="30">
-        <f xml:space="preserve"> SUM(R$7:R30)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="30">
-        <f xml:space="preserve"> SUM(S$7:S30)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="22"/>
-      <c r="U31" s="23"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
